--- a/Matrici_confusione .xlsx
+++ b/Matrici_confusione .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\Exoplanets_Supervised_Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B00A57B-5854-4893-B8D6-360FAF315F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E848ECA-BDFF-45A0-AEB1-F895F7AD3022}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="765" yWindow="1320" windowWidth="16320" windowHeight="14265" xr2:uid="{98C08DC5-9F93-4672-951B-E2FA212067E3}"/>
   </bookViews>
@@ -31,6 +31,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,15 +392,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2FDEE48-979C-478A-94A1-3943CEE4CC59}">
-  <dimension ref="B2:I17"/>
+  <dimension ref="B1:L151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K1" sqref="K1:L151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>136</v>
       </c>
@@ -408,8 +427,14 @@
       <c r="I2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3">
         <v>1</v>
       </c>
@@ -428,8 +453,30 @@
       <c r="I3">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>132</v>
       </c>
@@ -448,8 +495,14 @@
       <c r="I6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>1</v>
       </c>
@@ -468,8 +521,30 @@
       <c r="I7">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>131</v>
       </c>
@@ -488,8 +563,14 @@
       <c r="I10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>1</v>
       </c>
@@ -508,24 +589,58 @@
       <c r="I11">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>132</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="F16" s="1">
         <f>(B2+E2+B6+E6+H6+B10+E10+B14+H10+H2)/10</f>
         <v>133.5</v>
@@ -534,8 +649,14 @@
         <f>(C2+F2+C6+F6+I6+C10+F10+C14+I10+I2)/10</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F17" s="1">
         <f>(B3+E3+B7+E7+H7+B11+E11+B15+H11+H3)/10</f>
         <v>1.3</v>
@@ -543,6 +664,1084 @@
       <c r="G17" s="1">
         <f>(C3+F3+C7+F7+I7+C11+F11+C15+I11+I3)/10</f>
         <v>13.2</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="6:12" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K148">
+        <v>0</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="11:12" x14ac:dyDescent="0.25">
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
